--- a/Files/emailSheet.xlsx
+++ b/Files/emailSheet.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8CBCD-07E5-48D8-B79E-869045670199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17C1C831-5EB3-47A3-9053-0253D73C8146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="5724"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,25 +26,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>randomemail1@email.com</t>
+    <t>randomemail1@gmail.com</t>
   </si>
   <si>
-    <t>randomemail2@email.com</t>
+    <t>randomemail2@gmail.com</t>
   </si>
   <si>
-    <t>randomemail3@email.com</t>
+    <t>randomemail3@gmail.com</t>
   </si>
   <si>
-    <t>randomemail4@email.com</t>
+    <t>randomemail4@gmail.com</t>
   </si>
   <si>
-    <t>randomemail5@email.com</t>
+    <t>randomemail5@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +121,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -143,7 +133,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -160,9 +150,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -190,31 +180,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -242,23 +215,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,16 +366,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E0316-E44D-4883-BA19-2C924C59AA9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -449,12 +405,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{1E20746C-2115-47B0-B536-5ED5BC35BF64}"/>
-    <hyperlink ref="A2:A5" r:id="rId2" display="randomemail1@email.com" xr:uid="{7B8DD0B6-1DA1-43AB-A364-1A0921FBE1A1}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{C77CAE6E-75A7-4253-BE9B-CB1A68DE7439}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{FB9AEE06-5C7A-49F9-BA83-97719195ACBA}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{B9D99A99-6D6F-40AE-9C67-A91240DAFF6C}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{A98B9114-F1C7-43F7-AF2E-F1A0024F9C3C}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
